--- a/storage/dataset/sample.xlsx
+++ b/storage/dataset/sample.xlsx
@@ -375,68 +375,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Buyer</v>
-      </c>
-      <c r="B1" t="str">
-        <v>promise_date</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Vendor</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Diff Day</v>
-      </c>
-      <c r="E1" t="str">
-        <v>T_ID</v>
-      </c>
-      <c r="F1" t="str">
-        <v>reason</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Konto-Ngen, Mr. Chukhiad</v>
-      </c>
-      <c r="B2" t="str">
-        <v>8/3/2023</v>
-      </c>
-      <c r="C2" t="str">
-        <v>PANASONIC SOLUTIONS (THAILAND) CO.,LTD.</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>5277437</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>GETCALM, Miss THANAWAN</v>
-      </c>
-      <c r="B3" t="str">
-        <v>8/24/2023</v>
-      </c>
-      <c r="C3" t="str">
-        <v>PANASONIC SOLUTIONS (THAILAND) CO.,LTD.</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>5295137</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/storage/dataset/sample.xlsx
+++ b/storage/dataset/sample.xlsx
@@ -375,13 +375,352 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Buyer</v>
+      </c>
+      <c r="B1" t="str">
+        <v>item_no</v>
+      </c>
+      <c r="C1" t="str">
+        <v>item_name</v>
+      </c>
+      <c r="D1" t="str">
+        <v>po</v>
+      </c>
+      <c r="E1" t="str">
+        <v>po release</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Vendor</v>
+      </c>
+      <c r="G1" t="str">
+        <v>promise_date</v>
+      </c>
+      <c r="H1" t="str">
+        <v>QTY</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Chomtong, Miss Sirirat</v>
+      </c>
+      <c r="B2" t="str">
+        <v>BAM2EKT033EA</v>
+      </c>
+      <c r="C2" t="str">
+        <v>*NAIL 25 mm.</v>
+      </c>
+      <c r="D2">
+        <v>1316</v>
+      </c>
+      <c r="E2">
+        <v>383</v>
+      </c>
+      <c r="F2" t="str">
+        <v>FUKUI BYORA (THAILAND) CO.,LTD.</v>
+      </c>
+      <c r="G2" t="str">
+        <v>8/23/2023</v>
+      </c>
+      <c r="H2">
+        <v>3600000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Chomtong, Miss Sirirat</v>
+      </c>
+      <c r="B3" t="str">
+        <v>BAM2EKT033EA</v>
+      </c>
+      <c r="C3" t="str">
+        <v>*NAIL 25 mm.</v>
+      </c>
+      <c r="D3">
+        <v>1316</v>
+      </c>
+      <c r="E3">
+        <v>382</v>
+      </c>
+      <c r="F3" t="str">
+        <v>FUKUI BYORA (THAILAND) CO.,LTD.</v>
+      </c>
+      <c r="G3" t="str">
+        <v>8/16/2023</v>
+      </c>
+      <c r="H3">
+        <v>3600000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Chomtong, Miss Sirirat</v>
+      </c>
+      <c r="B4" t="str">
+        <v>BAM2EKT032EA</v>
+      </c>
+      <c r="C4" t="str">
+        <v>*LR6 LR03 NAIL 29 mm.</v>
+      </c>
+      <c r="D4">
+        <v>1316</v>
+      </c>
+      <c r="E4">
+        <v>383</v>
+      </c>
+      <c r="F4" t="str">
+        <v>FUKUI BYORA (THAILAND) CO.,LTD.</v>
+      </c>
+      <c r="G4" t="str">
+        <v>8/23/2023</v>
+      </c>
+      <c r="H4">
+        <v>2880000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Chomtong, Miss Sirirat</v>
+      </c>
+      <c r="B5" t="str">
+        <v>BAM2EK00240A</v>
+      </c>
+      <c r="C5" t="str">
+        <v>NAIL(1.15x33 mm) LR6</v>
+      </c>
+      <c r="D5">
+        <v>1316</v>
+      </c>
+      <c r="E5">
+        <v>383</v>
+      </c>
+      <c r="F5" t="str">
+        <v>FUKUI BYORA (THAILAND) CO.,LTD.</v>
+      </c>
+      <c r="G5" t="str">
+        <v>8/23/2023</v>
+      </c>
+      <c r="H5">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Chomtong, Miss Sirirat</v>
+      </c>
+      <c r="B6" t="str">
+        <v>BAM2EKT032EA</v>
+      </c>
+      <c r="C6" t="str">
+        <v>*LR6 LR03 NAIL 29 mm.</v>
+      </c>
+      <c r="D6">
+        <v>1316</v>
+      </c>
+      <c r="E6">
+        <v>382</v>
+      </c>
+      <c r="F6" t="str">
+        <v>FUKUI BYORA (THAILAND) CO.,LTD.</v>
+      </c>
+      <c r="G6" t="str">
+        <v>8/16/2023</v>
+      </c>
+      <c r="H6">
+        <v>2880000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Chomtong, Miss Sirirat</v>
+      </c>
+      <c r="B7" t="str">
+        <v>BAM2EK00240A</v>
+      </c>
+      <c r="C7" t="str">
+        <v>NAIL(1.15x33 mm) LR6</v>
+      </c>
+      <c r="D7">
+        <v>1316</v>
+      </c>
+      <c r="E7">
+        <v>382</v>
+      </c>
+      <c r="F7" t="str">
+        <v>FUKUI BYORA (THAILAND) CO.,LTD.</v>
+      </c>
+      <c r="G7" t="str">
+        <v>8/16/2023</v>
+      </c>
+      <c r="H7">
+        <v>3600000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Chomtong, Miss Sirirat</v>
+      </c>
+      <c r="B8" t="str">
+        <v>BAM1CDT008EA</v>
+      </c>
+      <c r="C8" t="str">
+        <v>ZINC POWDER DOWA MD131 LR6,LR03</v>
+      </c>
+      <c r="D8">
+        <v>1479</v>
+      </c>
+      <c r="E8">
+        <v>172</v>
+      </c>
+      <c r="F8" t="str">
+        <v>PANASONIC SOLUTIONS (THAILAND) CO.,LTD.</v>
+      </c>
+      <c r="G8" t="str">
+        <v>8/11/2023</v>
+      </c>
+      <c r="H8">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Chomtong, Miss Sirirat</v>
+      </c>
+      <c r="B9" t="str">
+        <v>BAM2EKT033EA</v>
+      </c>
+      <c r="C9" t="str">
+        <v>*NAIL 25 mm.</v>
+      </c>
+      <c r="D9">
+        <v>1316</v>
+      </c>
+      <c r="E9">
+        <v>381</v>
+      </c>
+      <c r="F9" t="str">
+        <v>FUKUI BYORA (THAILAND) CO.,LTD.</v>
+      </c>
+      <c r="G9" t="str">
+        <v>8/9/2023</v>
+      </c>
+      <c r="H9">
+        <v>7200000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Chomtong, Miss Sirirat</v>
+      </c>
+      <c r="B10" t="str">
+        <v>BAM1CDT008EA</v>
+      </c>
+      <c r="C10" t="str">
+        <v>ZINC POWDER DOWA MD131 LR6,LR03</v>
+      </c>
+      <c r="D10">
+        <v>1479</v>
+      </c>
+      <c r="E10">
+        <v>171</v>
+      </c>
+      <c r="F10" t="str">
+        <v>PANASONIC SOLUTIONS (THAILAND) CO.,LTD.</v>
+      </c>
+      <c r="G10" t="str">
+        <v>8/10/2023</v>
+      </c>
+      <c r="H10">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Chomtong, Miss Sirirat</v>
+      </c>
+      <c r="B11" t="str">
+        <v>BAM1CDT012EA</v>
+      </c>
+      <c r="C11" t="str">
+        <v>ZINC POWDER DOWA MD245</v>
+      </c>
+      <c r="D11">
+        <v>1479</v>
+      </c>
+      <c r="E11">
+        <v>169</v>
+      </c>
+      <c r="F11" t="str">
+        <v>PANASONIC SOLUTIONS (THAILAND) CO.,LTD.</v>
+      </c>
+      <c r="G11" t="str">
+        <v>8/10/2023</v>
+      </c>
+      <c r="H11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Chomtong, Miss Sirirat</v>
+      </c>
+      <c r="B12" t="str">
+        <v>BAM2EK00240A</v>
+      </c>
+      <c r="C12" t="str">
+        <v>NAIL(1.15x33 mm) LR6</v>
+      </c>
+      <c r="D12">
+        <v>1316</v>
+      </c>
+      <c r="E12">
+        <v>381</v>
+      </c>
+      <c r="F12" t="str">
+        <v>FUKUI BYORA (THAILAND) CO.,LTD.</v>
+      </c>
+      <c r="G12" t="str">
+        <v>8/9/2023</v>
+      </c>
+      <c r="H12">
+        <v>3600000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Chomtong, Miss Sirirat</v>
+      </c>
+      <c r="B13" t="str">
+        <v>BAM2EKT032EA</v>
+      </c>
+      <c r="C13" t="str">
+        <v>*LR6 LR03 NAIL 29 mm.</v>
+      </c>
+      <c r="D13">
+        <v>1316</v>
+      </c>
+      <c r="E13">
+        <v>381</v>
+      </c>
+      <c r="F13" t="str">
+        <v>FUKUI BYORA (THAILAND) CO.,LTD.</v>
+      </c>
+      <c r="G13" t="str">
+        <v>8/9/2023</v>
+      </c>
+      <c r="H13">
+        <v>2880000</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H13"/>
   </ignoredErrors>
 </worksheet>
 </file>